--- a/raw_bea_data/PCEBridge_2017_DET.xlsx
+++ b/raw_bea_data/PCEBridge_2017_DET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bocdaz-my.sharepoint.com/personal/guit_bocdaz_ca/Documents/Desktop/New Raw Data Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bocdaz-my.sharepoint.com/personal/guit_bocdaz_ca/Documents/Desktop/shocks_production_networks/raw_bea_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{9E9C3FD3-F257-4186-B3A7-9BC57A0B8A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F6B8555-01A0-40D7-99F0-B2F4CE7044DA}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{9E9C3FD3-F257-4186-B3A7-9BC57A0B8A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A99F02D9-E0ED-4860-9D51-1D72366EECE1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="927" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="927" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Layout" sheetId="12" r:id="rId1"/>
@@ -5629,10 +5629,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -66213,7 +66209,7 @@
       <selection activeCell="D666" sqref="D666"/>
       <selection pane="topRight" activeCell="D666" sqref="D666"/>
       <selection pane="bottomLeft" activeCell="D666" sqref="D666"/>
-      <selection pane="bottomRight" activeCell="B661" sqref="B661"/>
+      <selection pane="bottomRight" activeCell="B680" sqref="B680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
